--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -27,6 +27,12 @@
     <t>http://helsenorge.no/fhir/CodeSystem/hn-kodeverk-varsling.codesystem</t>
   </si>
   <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>id: http://helsenorge.no/fhir/varsling</t>
+  </si>
+  <si>
     <t>Version</t>
   </si>
   <si>
@@ -60,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-04T23:57:32+01:00</t>
+    <t>2023-11-05T00:35:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -272,7 +278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -374,66 +380,74 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>31</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>34</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -451,39 +465,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2"/>
     </row>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-05T00:35:42+01:00</t>
+    <t>2023-11-05T15:52:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-05T15:52:07+01:00</t>
+    <t>2023-11-05T18:57:51+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Innbygger skal ikke varsles</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>Benytt angitt navn som avsender i varsel til innbygger</t>
@@ -494,10 +497,10 @@
         <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2"/>
     </row>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-05T18:57:51+01:00</t>
+    <t>2023-11-05T19:05:15+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-05T19:05:15+01:00</t>
+    <t>2023-11-13T19:18:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T19:18:44+01:00</t>
+    <t>2023-11-13T21:18:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T21:18:10+01:00</t>
+    <t>2023-11-15T00:00:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:00:31+01:00</t>
+    <t>2023-11-15T00:11:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:11:46+01:00</t>
+    <t>2023-11-15T00:20:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:20:08+01:00</t>
+    <t>2023-11-15T00:28:16+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:28:16+01:00</t>
+    <t>2023-11-15T22:57:05+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T22:57:05+01:00</t>
+    <t>2023-11-15T23:05:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T23:05:14+01:00</t>
+    <t>2023-11-17T13:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-17T13:16:17+01:00</t>
+    <t>2023-12-12T23:44:27+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-12T23:44:27+01:00</t>
+    <t>2023-12-13T00:38:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:38:53+01:00</t>
+    <t>2023-12-13T00:44:24+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:44:24+01:00</t>
+    <t>2023-12-13T00:53:03+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:53:03+01:00</t>
+    <t>2023-12-13T00:58:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:58:42+01:00</t>
+    <t>2023-12-13T10:40:21+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T10:40:21+01:00</t>
+    <t>2023-12-13T11:06:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:06:00+01:00</t>
+    <t>2023-12-13T11:11:11+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:11:11+01:00</t>
+    <t>2023-12-13T11:17:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:17:26+01:00</t>
+    <t>2023-12-13T16:08:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:08:28+01:00</t>
+    <t>2023-12-13T16:14:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:14:30+01:00</t>
+    <t>2023-12-13T17:25:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:25:33+01:00</t>
+    <t>2023-12-13T17:36:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:36:01+01:00</t>
+    <t>2023-12-14T00:07:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:07:25+01:00</t>
+    <t>2023-12-14T00:17:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:17:30+01:00</t>
+    <t>2023-12-14T00:31:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:31:44+01:00</t>
+    <t>2023-12-14T15:10:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T15:10:19+01:00</t>
+    <t>2024-06-09T15:34:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-09T15:34:44+02:00</t>
+    <t>2024-06-12T14:59:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T23:06:55+01:00</t>
+    <t>2024-11-07T10:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:16:17+01:00</t>
+    <t>2024-11-07T10:24:13+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:24:13+01:00</t>
+    <t>2024-11-07T10:34:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:34:59+01:00</t>
+    <t>2025-02-07T15:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:58:52+01:00</t>
+    <t>2025-02-12T12:09:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T12:09:01+01:00</t>
+    <t>2025-02-12T17:25:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T17:25:34+01:00</t>
+    <t>2025-02-13T07:45:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T07:45:06+01:00</t>
+    <t>2025-02-21T16:49:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T16:49:26+01:00</t>
+    <t>2025-02-22T02:39:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T02:39:46+01:00</t>
+    <t>2025-02-22T03:24:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:24:26+01:00</t>
+    <t>2025-02-22T03:36:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:36:49+01:00</t>
+    <t>2025-02-22T03:45:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:45:56+01:00</t>
+    <t>2025-02-22T03:55:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:55:28+01:00</t>
+    <t>2025-02-22T04:12:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T04:12:23+01:00</t>
+    <t>2025-02-22T05:08:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:08:06+01:00</t>
+    <t>2025-02-22T05:29:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:29:40+01:00</t>
+    <t>2025-03-16T11:47:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T11:47:10+01:00</t>
+    <t>2025-03-16T12:58:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T12:58:55+01:00</t>
+    <t>2025-03-16T13:18:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T13:18:55+01:00</t>
+    <t>2025-03-26T11:34:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T11:34:28+01:00</t>
+    <t>2025-05-28T01:07:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T01:07:52+02:00</t>
+    <t>2025-05-28T02:05:36+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T02:05:36+02:00</t>
+    <t>2025-05-29T20:33:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:33:03+02:00</t>
+    <t>2025-05-29T20:44:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:44:52+02:00</t>
+    <t>2025-07-07T00:15:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:15:54+02:00</t>
+    <t>2025-07-07T00:32:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:32:38+02:00</t>
+    <t>2025-07-07T08:59:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T08:59:22+02:00</t>
+    <t>2025-09-28T17:18:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-28T17:18:13+02:00</t>
+    <t>2025-09-29T11:26:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:26:30+02:00</t>
+    <t>2025-09-29T11:54:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:54:59+02:00</t>
+    <t>2025-09-29T13:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:11:32+02:00</t>
+    <t>2025-09-29T13:18:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
+++ b/ExampleIG/output/CodeSystem-hn-kodeverk-varsling.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:18:42+02:00</t>
+    <t>2025-10-01T13:36:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
